--- a/Lists/devoicing.xlsx
+++ b/Lists/devoicing.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="350">
   <si>
     <t>musap</t>
   </si>
@@ -1402,8 +1402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43:K73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -3326,14 +3326,14 @@
         <v>177</v>
       </c>
       <c r="I44" t="str">
-        <f>IF(H44="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <f t="shared" ref="I44:I73" si="0">IF(H44="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
         <v>Write the singular form on your keyboard - then press enter</v>
       </c>
       <c r="J44" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="K44" t="s">
-        <v>178</v>
+        <v>6</v>
       </c>
       <c r="L44" t="s">
         <v>6</v>
@@ -3371,14 +3371,14 @@
         <v>177</v>
       </c>
       <c r="I45" t="str">
-        <f>IF(H45="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <f t="shared" si="0"/>
         <v>Write the singular form on your keyboard - then press enter</v>
       </c>
       <c r="J45" t="s">
-        <v>180</v>
+        <v>6</v>
       </c>
       <c r="K45" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="L45" t="s">
         <v>6</v>
@@ -3416,14 +3416,14 @@
         <v>181</v>
       </c>
       <c r="I46" t="str">
-        <f>IF(H46="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <f t="shared" si="0"/>
         <v>Write the plural form on your keyboard - then press enter</v>
       </c>
       <c r="J46" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="K46" t="s">
-        <v>182</v>
+        <v>6</v>
       </c>
       <c r="L46" t="s">
         <v>6</v>
@@ -3461,14 +3461,14 @@
         <v>177</v>
       </c>
       <c r="I47" t="str">
-        <f>IF(H47="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <f t="shared" si="0"/>
         <v>Write the singular form on your keyboard - then press enter</v>
       </c>
       <c r="J47" t="s">
-        <v>183</v>
+        <v>6</v>
       </c>
       <c r="K47" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="L47" t="s">
         <v>6</v>
@@ -3506,14 +3506,14 @@
         <v>181</v>
       </c>
       <c r="I48" t="str">
-        <f>IF(H48="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <f t="shared" si="0"/>
         <v>Write the plural form on your keyboard - then press enter</v>
       </c>
       <c r="J48" t="s">
-        <v>189</v>
+        <v>6</v>
       </c>
       <c r="K48" t="s">
-        <v>190</v>
+        <v>6</v>
       </c>
       <c r="L48" t="s">
         <v>6</v>
@@ -3551,14 +3551,14 @@
         <v>181</v>
       </c>
       <c r="I49" t="str">
-        <f>IF(H49="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <f t="shared" si="0"/>
         <v>Write the plural form on your keyboard - then press enter</v>
       </c>
       <c r="J49" t="s">
-        <v>195</v>
+        <v>6</v>
       </c>
       <c r="K49" t="s">
-        <v>196</v>
+        <v>6</v>
       </c>
       <c r="L49" t="s">
         <v>6</v>
@@ -3596,14 +3596,14 @@
         <v>177</v>
       </c>
       <c r="I50" t="str">
-        <f>IF(H50="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <f t="shared" si="0"/>
         <v>Write the singular form on your keyboard - then press enter</v>
       </c>
       <c r="J50" t="s">
-        <v>201</v>
+        <v>6</v>
       </c>
       <c r="K50" t="s">
-        <v>202</v>
+        <v>6</v>
       </c>
       <c r="L50" t="s">
         <v>6</v>
@@ -3641,14 +3641,14 @@
         <v>177</v>
       </c>
       <c r="I51" t="str">
-        <f>IF(H51="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <f t="shared" si="0"/>
         <v>Write the singular form on your keyboard - then press enter</v>
       </c>
       <c r="J51" t="s">
-        <v>207</v>
+        <v>6</v>
       </c>
       <c r="K51" t="s">
-        <v>208</v>
+        <v>6</v>
       </c>
       <c r="L51" t="s">
         <v>6</v>
@@ -3686,14 +3686,14 @@
         <v>177</v>
       </c>
       <c r="I52" t="str">
-        <f>IF(H52="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <f t="shared" si="0"/>
         <v>Write the singular form on your keyboard - then press enter</v>
       </c>
       <c r="J52" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="K52" t="s">
-        <v>209</v>
+        <v>6</v>
       </c>
       <c r="L52" t="s">
         <v>6</v>
@@ -3731,14 +3731,14 @@
         <v>177</v>
       </c>
       <c r="I53" t="str">
-        <f>IF(H53="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <f t="shared" si="0"/>
         <v>Write the singular form on your keyboard - then press enter</v>
       </c>
       <c r="J53" t="s">
-        <v>210</v>
+        <v>6</v>
       </c>
       <c r="K53" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="L53" t="s">
         <v>6</v>
@@ -3776,14 +3776,14 @@
         <v>177</v>
       </c>
       <c r="I54" t="str">
-        <f>IF(H54="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <f t="shared" si="0"/>
         <v>Write the singular form on your keyboard - then press enter</v>
       </c>
       <c r="J54" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="K54" t="s">
-        <v>211</v>
+        <v>6</v>
       </c>
       <c r="L54" t="s">
         <v>6</v>
@@ -3821,14 +3821,14 @@
         <v>181</v>
       </c>
       <c r="I55" t="str">
-        <f>IF(H55="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <f t="shared" si="0"/>
         <v>Write the plural form on your keyboard - then press enter</v>
       </c>
       <c r="J55" t="s">
-        <v>212</v>
+        <v>6</v>
       </c>
       <c r="K55" t="s">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="L55" t="s">
         <v>6</v>
@@ -3866,14 +3866,14 @@
         <v>177</v>
       </c>
       <c r="I56" t="str">
-        <f>IF(H56="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <f t="shared" si="0"/>
         <v>Write the singular form on your keyboard - then press enter</v>
       </c>
       <c r="J56" t="s">
-        <v>217</v>
+        <v>6</v>
       </c>
       <c r="K56" t="s">
-        <v>218</v>
+        <v>6</v>
       </c>
       <c r="L56" t="s">
         <v>6</v>
@@ -3911,14 +3911,14 @@
         <v>181</v>
       </c>
       <c r="I57" t="str">
-        <f>IF(H57="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <f t="shared" si="0"/>
         <v>Write the plural form on your keyboard - then press enter</v>
       </c>
       <c r="J57" t="s">
-        <v>223</v>
+        <v>6</v>
       </c>
       <c r="K57" t="s">
-        <v>224</v>
+        <v>6</v>
       </c>
       <c r="L57" t="s">
         <v>6</v>
@@ -3956,14 +3956,14 @@
         <v>177</v>
       </c>
       <c r="I58" t="str">
-        <f>IF(H58="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <f t="shared" si="0"/>
         <v>Write the singular form on your keyboard - then press enter</v>
       </c>
       <c r="J58" t="s">
-        <v>229</v>
+        <v>6</v>
       </c>
       <c r="K58" t="s">
-        <v>230</v>
+        <v>6</v>
       </c>
       <c r="L58" t="s">
         <v>6</v>
@@ -4001,14 +4001,14 @@
         <v>177</v>
       </c>
       <c r="I59" t="str">
-        <f>IF(H59="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <f t="shared" si="0"/>
         <v>Write the singular form on your keyboard - then press enter</v>
       </c>
       <c r="J59" t="s">
-        <v>235</v>
+        <v>6</v>
       </c>
       <c r="K59" t="s">
-        <v>236</v>
+        <v>6</v>
       </c>
       <c r="L59" t="s">
         <v>6</v>
@@ -4046,14 +4046,14 @@
         <v>177</v>
       </c>
       <c r="I60" t="str">
-        <f>IF(H60="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <f t="shared" si="0"/>
         <v>Write the singular form on your keyboard - then press enter</v>
       </c>
       <c r="J60" t="s">
-        <v>112</v>
+        <v>6</v>
       </c>
       <c r="K60" t="s">
-        <v>237</v>
+        <v>6</v>
       </c>
       <c r="L60" t="s">
         <v>6</v>
@@ -4091,14 +4091,14 @@
         <v>177</v>
       </c>
       <c r="I61" t="str">
-        <f>IF(H61="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <f t="shared" si="0"/>
         <v>Write the singular form on your keyboard - then press enter</v>
       </c>
       <c r="J61" t="s">
-        <v>238</v>
+        <v>6</v>
       </c>
       <c r="K61" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="L61" t="s">
         <v>6</v>
@@ -4136,14 +4136,14 @@
         <v>181</v>
       </c>
       <c r="I62" t="str">
-        <f>IF(H62="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <f t="shared" si="0"/>
         <v>Write the plural form on your keyboard - then press enter</v>
       </c>
       <c r="J62" t="s">
-        <v>119</v>
+        <v>6</v>
       </c>
       <c r="K62" t="s">
-        <v>239</v>
+        <v>6</v>
       </c>
       <c r="L62" t="s">
         <v>6</v>
@@ -4181,14 +4181,14 @@
         <v>177</v>
       </c>
       <c r="I63" t="str">
-        <f>IF(H63="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <f t="shared" si="0"/>
         <v>Write the singular form on your keyboard - then press enter</v>
       </c>
       <c r="J63" t="s">
-        <v>240</v>
+        <v>6</v>
       </c>
       <c r="K63" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="L63" t="s">
         <v>6</v>
@@ -4226,14 +4226,14 @@
         <v>177</v>
       </c>
       <c r="I64" t="str">
-        <f>IF(H64="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <f t="shared" si="0"/>
         <v>Write the singular form on your keyboard - then press enter</v>
       </c>
       <c r="J64" t="s">
-        <v>245</v>
+        <v>6</v>
       </c>
       <c r="K64" t="s">
-        <v>246</v>
+        <v>6</v>
       </c>
       <c r="L64" t="s">
         <v>6</v>
@@ -4271,14 +4271,14 @@
         <v>177</v>
       </c>
       <c r="I65" t="str">
-        <f>IF(H65="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <f t="shared" si="0"/>
         <v>Write the singular form on your keyboard - then press enter</v>
       </c>
       <c r="J65" t="s">
-        <v>251</v>
+        <v>6</v>
       </c>
       <c r="K65" t="s">
-        <v>252</v>
+        <v>6</v>
       </c>
       <c r="L65" t="s">
         <v>6</v>
@@ -4316,14 +4316,14 @@
         <v>177</v>
       </c>
       <c r="I66" t="str">
-        <f>IF(H66="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <f t="shared" si="0"/>
         <v>Write the singular form on your keyboard - then press enter</v>
       </c>
       <c r="J66" t="s">
-        <v>257</v>
+        <v>6</v>
       </c>
       <c r="K66" t="s">
-        <v>258</v>
+        <v>6</v>
       </c>
       <c r="L66" t="s">
         <v>6</v>
@@ -4361,14 +4361,14 @@
         <v>177</v>
       </c>
       <c r="I67" t="str">
-        <f>IF(H67="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <f t="shared" si="0"/>
         <v>Write the singular form on your keyboard - then press enter</v>
       </c>
       <c r="J67" t="s">
-        <v>263</v>
+        <v>6</v>
       </c>
       <c r="K67" t="s">
-        <v>264</v>
+        <v>6</v>
       </c>
       <c r="L67" t="s">
         <v>6</v>
@@ -4406,14 +4406,14 @@
         <v>181</v>
       </c>
       <c r="I68" t="str">
-        <f>IF(H68="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <f t="shared" si="0"/>
         <v>Write the plural form on your keyboard - then press enter</v>
       </c>
       <c r="J68" t="s">
-        <v>145</v>
+        <v>6</v>
       </c>
       <c r="K68" t="s">
-        <v>266</v>
+        <v>6</v>
       </c>
       <c r="L68" t="s">
         <v>6</v>
@@ -4451,14 +4451,14 @@
         <v>177</v>
       </c>
       <c r="I69" t="str">
-        <f>IF(H69="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <f t="shared" si="0"/>
         <v>Write the singular form on your keyboard - then press enter</v>
       </c>
       <c r="J69" t="s">
-        <v>271</v>
+        <v>6</v>
       </c>
       <c r="K69" t="s">
-        <v>139</v>
+        <v>6</v>
       </c>
       <c r="L69" t="s">
         <v>6</v>
@@ -4496,14 +4496,14 @@
         <v>177</v>
       </c>
       <c r="I70" t="str">
-        <f>IF(H70="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <f t="shared" si="0"/>
         <v>Write the singular form on your keyboard - then press enter</v>
       </c>
       <c r="J70" t="s">
-        <v>156</v>
+        <v>6</v>
       </c>
       <c r="K70" t="s">
-        <v>276</v>
+        <v>6</v>
       </c>
       <c r="L70" t="s">
         <v>6</v>
@@ -4541,14 +4541,14 @@
         <v>177</v>
       </c>
       <c r="I71" t="str">
-        <f>IF(H71="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <f t="shared" si="0"/>
         <v>Write the singular form on your keyboard - then press enter</v>
       </c>
       <c r="J71" t="s">
-        <v>281</v>
+        <v>6</v>
       </c>
       <c r="K71" t="s">
-        <v>282</v>
+        <v>6</v>
       </c>
       <c r="L71" t="s">
         <v>6</v>
@@ -4586,14 +4586,14 @@
         <v>177</v>
       </c>
       <c r="I72" t="str">
-        <f>IF(H72="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <f t="shared" si="0"/>
         <v>Write the singular form on your keyboard - then press enter</v>
       </c>
       <c r="J72" t="s">
-        <v>168</v>
+        <v>6</v>
       </c>
       <c r="K72" t="s">
-        <v>284</v>
+        <v>6</v>
       </c>
       <c r="L72" t="s">
         <v>6</v>
@@ -4631,14 +4631,14 @@
         <v>181</v>
       </c>
       <c r="I73" t="str">
-        <f>IF(H73="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <f t="shared" si="0"/>
         <v>Write the plural form on your keyboard - then press enter</v>
       </c>
       <c r="J73" t="s">
-        <v>289</v>
+        <v>6</v>
       </c>
       <c r="K73" t="s">
-        <v>290</v>
+        <v>6</v>
       </c>
       <c r="L73" t="s">
         <v>6</v>
@@ -4676,8 +4676,14 @@
         <v>181</v>
       </c>
       <c r="I74" t="str">
-        <f>IF(H74="pl","Choose the plural form of the word that belongs to the language","Choose the singular form of the word that belongs to the language")</f>
+        <f t="shared" ref="I74:I103" si="1">IF(H74="pl","Choose the plural form of the word that belongs to the language","Choose the singular form of the word that belongs to the language")</f>
         <v>Choose the plural form of the word that belongs to the language</v>
+      </c>
+      <c r="J74" t="s">
+        <v>22</v>
+      </c>
+      <c r="K74" t="s">
+        <v>178</v>
       </c>
       <c r="L74" t="s">
         <v>291</v>
@@ -4715,8 +4721,14 @@
         <v>177</v>
       </c>
       <c r="I75" t="str">
-        <f>IF(H75="pl","Choose the plural form of the word that belongs to the language","Choose the singular form of the word that belongs to the language")</f>
+        <f t="shared" si="1"/>
         <v>Choose the singular form of the word that belongs to the language</v>
+      </c>
+      <c r="J75" t="s">
+        <v>180</v>
+      </c>
+      <c r="K75" t="s">
+        <v>25</v>
       </c>
       <c r="L75" t="s">
         <v>293</v>
@@ -4754,8 +4766,14 @@
         <v>181</v>
       </c>
       <c r="I76" t="str">
-        <f>IF(H76="pl","Choose the plural form of the word that belongs to the language","Choose the singular form of the word that belongs to the language")</f>
+        <f t="shared" si="1"/>
         <v>Choose the plural form of the word that belongs to the language</v>
+      </c>
+      <c r="J76" t="s">
+        <v>30</v>
+      </c>
+      <c r="K76" t="s">
+        <v>182</v>
       </c>
       <c r="L76" t="s">
         <v>291</v>
@@ -4793,8 +4811,14 @@
         <v>177</v>
       </c>
       <c r="I77" t="str">
-        <f>IF(H77="pl","Choose the plural form of the word that belongs to the language","Choose the singular form of the word that belongs to the language")</f>
+        <f t="shared" si="1"/>
         <v>Choose the singular form of the word that belongs to the language</v>
+      </c>
+      <c r="J77" t="s">
+        <v>183</v>
+      </c>
+      <c r="K77" t="s">
+        <v>33</v>
       </c>
       <c r="L77" t="s">
         <v>293</v>
@@ -4832,8 +4856,14 @@
         <v>177</v>
       </c>
       <c r="I78" t="str">
-        <f>IF(H78="pl","Choose the plural form of the word that belongs to the language","Choose the singular form of the word that belongs to the language")</f>
+        <f t="shared" si="1"/>
         <v>Choose the singular form of the word that belongs to the language</v>
+      </c>
+      <c r="J78" t="s">
+        <v>189</v>
+      </c>
+      <c r="K78" t="s">
+        <v>190</v>
       </c>
       <c r="L78" t="s">
         <v>291</v>
@@ -4871,8 +4901,14 @@
         <v>177</v>
       </c>
       <c r="I79" t="str">
-        <f>IF(H79="pl","Choose the plural form of the word that belongs to the language","Choose the singular form of the word that belongs to the language")</f>
+        <f t="shared" si="1"/>
         <v>Choose the singular form of the word that belongs to the language</v>
+      </c>
+      <c r="J79" t="s">
+        <v>195</v>
+      </c>
+      <c r="K79" t="s">
+        <v>196</v>
       </c>
       <c r="L79" t="s">
         <v>293</v>
@@ -4910,8 +4946,14 @@
         <v>177</v>
       </c>
       <c r="I80" t="str">
-        <f>IF(H80="pl","Choose the plural form of the word that belongs to the language","Choose the singular form of the word that belongs to the language")</f>
+        <f t="shared" si="1"/>
         <v>Choose the singular form of the word that belongs to the language</v>
+      </c>
+      <c r="J80" t="s">
+        <v>201</v>
+      </c>
+      <c r="K80" t="s">
+        <v>202</v>
       </c>
       <c r="L80" t="s">
         <v>291</v>
@@ -4949,8 +4991,14 @@
         <v>177</v>
       </c>
       <c r="I81" t="str">
-        <f>IF(H81="pl","Choose the plural form of the word that belongs to the language","Choose the singular form of the word that belongs to the language")</f>
+        <f t="shared" si="1"/>
         <v>Choose the singular form of the word that belongs to the language</v>
+      </c>
+      <c r="J81" t="s">
+        <v>207</v>
+      </c>
+      <c r="K81" t="s">
+        <v>208</v>
       </c>
       <c r="L81" t="s">
         <v>293</v>
@@ -4988,8 +5036,14 @@
         <v>181</v>
       </c>
       <c r="I82" t="str">
-        <f>IF(H82="pl","Choose the plural form of the word that belongs to the language","Choose the singular form of the word that belongs to the language")</f>
+        <f t="shared" si="1"/>
         <v>Choose the plural form of the word that belongs to the language</v>
+      </c>
+      <c r="J82" t="s">
+        <v>67</v>
+      </c>
+      <c r="K82" t="s">
+        <v>209</v>
       </c>
       <c r="L82" t="s">
         <v>291</v>
@@ -5027,8 +5081,14 @@
         <v>177</v>
       </c>
       <c r="I83" t="str">
-        <f>IF(H83="pl","Choose the plural form of the word that belongs to the language","Choose the singular form of the word that belongs to the language")</f>
+        <f t="shared" si="1"/>
         <v>Choose the singular form of the word that belongs to the language</v>
+      </c>
+      <c r="J83" t="s">
+        <v>210</v>
+      </c>
+      <c r="K83" t="s">
+        <v>70</v>
       </c>
       <c r="L83" t="s">
         <v>293</v>
@@ -5066,8 +5126,14 @@
         <v>181</v>
       </c>
       <c r="I84" t="str">
-        <f>IF(H84="pl","Choose the plural form of the word that belongs to the language","Choose the singular form of the word that belongs to the language")</f>
+        <f t="shared" si="1"/>
         <v>Choose the plural form of the word that belongs to the language</v>
+      </c>
+      <c r="J84" t="s">
+        <v>75</v>
+      </c>
+      <c r="K84" t="s">
+        <v>211</v>
       </c>
       <c r="L84" t="s">
         <v>291</v>
@@ -5105,8 +5171,14 @@
         <v>177</v>
       </c>
       <c r="I85" t="str">
-        <f>IF(H85="pl","Choose the plural form of the word that belongs to the language","Choose the singular form of the word that belongs to the language")</f>
+        <f t="shared" si="1"/>
         <v>Choose the singular form of the word that belongs to the language</v>
+      </c>
+      <c r="J85" t="s">
+        <v>212</v>
+      </c>
+      <c r="K85" t="s">
+        <v>78</v>
       </c>
       <c r="L85" t="s">
         <v>293</v>
@@ -5144,8 +5216,14 @@
         <v>177</v>
       </c>
       <c r="I86" t="str">
-        <f>IF(H86="pl","Choose the plural form of the word that belongs to the language","Choose the singular form of the word that belongs to the language")</f>
+        <f t="shared" si="1"/>
         <v>Choose the singular form of the word that belongs to the language</v>
+      </c>
+      <c r="J86" t="s">
+        <v>217</v>
+      </c>
+      <c r="K86" t="s">
+        <v>218</v>
       </c>
       <c r="L86" t="s">
         <v>291</v>
@@ -5183,8 +5261,14 @@
         <v>177</v>
       </c>
       <c r="I87" t="str">
-        <f>IF(H87="pl","Choose the plural form of the word that belongs to the language","Choose the singular form of the word that belongs to the language")</f>
+        <f t="shared" si="1"/>
         <v>Choose the singular form of the word that belongs to the language</v>
+      </c>
+      <c r="J87" t="s">
+        <v>223</v>
+      </c>
+      <c r="K87" t="s">
+        <v>224</v>
       </c>
       <c r="L87" t="s">
         <v>293</v>
@@ -5222,8 +5306,14 @@
         <v>177</v>
       </c>
       <c r="I88" t="str">
-        <f>IF(H88="pl","Choose the plural form of the word that belongs to the language","Choose the singular form of the word that belongs to the language")</f>
+        <f t="shared" si="1"/>
         <v>Choose the singular form of the word that belongs to the language</v>
+      </c>
+      <c r="J88" t="s">
+        <v>229</v>
+      </c>
+      <c r="K88" t="s">
+        <v>230</v>
       </c>
       <c r="L88" t="s">
         <v>291</v>
@@ -5261,8 +5351,14 @@
         <v>177</v>
       </c>
       <c r="I89" t="str">
-        <f>IF(H89="pl","Choose the plural form of the word that belongs to the language","Choose the singular form of the word that belongs to the language")</f>
+        <f t="shared" si="1"/>
         <v>Choose the singular form of the word that belongs to the language</v>
+      </c>
+      <c r="J89" t="s">
+        <v>235</v>
+      </c>
+      <c r="K89" t="s">
+        <v>236</v>
       </c>
       <c r="L89" t="s">
         <v>293</v>
@@ -5300,8 +5396,14 @@
         <v>181</v>
       </c>
       <c r="I90" t="str">
-        <f>IF(H90="pl","Choose the plural form of the word that belongs to the language","Choose the singular form of the word that belongs to the language")</f>
+        <f t="shared" si="1"/>
         <v>Choose the plural form of the word that belongs to the language</v>
+      </c>
+      <c r="J90" t="s">
+        <v>112</v>
+      </c>
+      <c r="K90" t="s">
+        <v>237</v>
       </c>
       <c r="L90" t="s">
         <v>291</v>
@@ -5339,8 +5441,14 @@
         <v>177</v>
       </c>
       <c r="I91" t="str">
-        <f>IF(H91="pl","Choose the plural form of the word that belongs to the language","Choose the singular form of the word that belongs to the language")</f>
+        <f t="shared" si="1"/>
         <v>Choose the singular form of the word that belongs to the language</v>
+      </c>
+      <c r="J91" t="s">
+        <v>238</v>
+      </c>
+      <c r="K91" t="s">
+        <v>115</v>
       </c>
       <c r="L91" t="s">
         <v>293</v>
@@ -5378,8 +5486,14 @@
         <v>177</v>
       </c>
       <c r="I92" t="str">
-        <f>IF(H92="pl","Choose the plural form of the word that belongs to the language","Choose the singular form of the word that belongs to the language")</f>
+        <f t="shared" si="1"/>
         <v>Choose the singular form of the word that belongs to the language</v>
+      </c>
+      <c r="J92" t="s">
+        <v>119</v>
+      </c>
+      <c r="K92" t="s">
+        <v>239</v>
       </c>
       <c r="L92" t="s">
         <v>291</v>
@@ -5417,8 +5531,14 @@
         <v>177</v>
       </c>
       <c r="I93" t="str">
-        <f>IF(H93="pl","Choose the plural form of the word that belongs to the language","Choose the singular form of the word that belongs to the language")</f>
+        <f t="shared" si="1"/>
         <v>Choose the singular form of the word that belongs to the language</v>
+      </c>
+      <c r="J93" t="s">
+        <v>240</v>
+      </c>
+      <c r="K93" t="s">
+        <v>123</v>
       </c>
       <c r="L93" t="s">
         <v>293</v>
@@ -5456,8 +5576,14 @@
         <v>177</v>
       </c>
       <c r="I94" t="str">
-        <f>IF(H94="pl","Choose the plural form of the word that belongs to the language","Choose the singular form of the word that belongs to the language")</f>
+        <f t="shared" si="1"/>
         <v>Choose the singular form of the word that belongs to the language</v>
+      </c>
+      <c r="J94" t="s">
+        <v>245</v>
+      </c>
+      <c r="K94" t="s">
+        <v>246</v>
       </c>
       <c r="L94" t="s">
         <v>291</v>
@@ -5495,8 +5621,14 @@
         <v>177</v>
       </c>
       <c r="I95" t="str">
-        <f>IF(H95="pl","Choose the plural form of the word that belongs to the language","Choose the singular form of the word that belongs to the language")</f>
+        <f t="shared" si="1"/>
         <v>Choose the singular form of the word that belongs to the language</v>
+      </c>
+      <c r="J95" t="s">
+        <v>251</v>
+      </c>
+      <c r="K95" t="s">
+        <v>252</v>
       </c>
       <c r="L95" t="s">
         <v>293</v>
@@ -5534,8 +5666,14 @@
         <v>177</v>
       </c>
       <c r="I96" t="str">
-        <f>IF(H96="pl","Choose the plural form of the word that belongs to the language","Choose the singular form of the word that belongs to the language")</f>
+        <f t="shared" si="1"/>
         <v>Choose the singular form of the word that belongs to the language</v>
+      </c>
+      <c r="J96" t="s">
+        <v>257</v>
+      </c>
+      <c r="K96" t="s">
+        <v>258</v>
       </c>
       <c r="L96" t="s">
         <v>291</v>
@@ -5573,8 +5711,14 @@
         <v>181</v>
       </c>
       <c r="I97" t="str">
-        <f>IF(H97="pl","Choose the plural form of the word that belongs to the language","Choose the singular form of the word that belongs to the language")</f>
+        <f t="shared" si="1"/>
         <v>Choose the plural form of the word that belongs to the language</v>
+      </c>
+      <c r="J97" t="s">
+        <v>263</v>
+      </c>
+      <c r="K97" t="s">
+        <v>264</v>
       </c>
       <c r="L97" t="s">
         <v>293</v>
@@ -5612,8 +5756,14 @@
         <v>181</v>
       </c>
       <c r="I98" t="str">
-        <f>IF(H98="pl","Choose the plural form of the word that belongs to the language","Choose the singular form of the word that belongs to the language")</f>
+        <f t="shared" si="1"/>
         <v>Choose the plural form of the word that belongs to the language</v>
+      </c>
+      <c r="J98" t="s">
+        <v>145</v>
+      </c>
+      <c r="K98" t="s">
+        <v>266</v>
       </c>
       <c r="L98" t="s">
         <v>291</v>
@@ -5651,8 +5801,14 @@
         <v>177</v>
       </c>
       <c r="I99" t="str">
-        <f>IF(H99="pl","Choose the plural form of the word that belongs to the language","Choose the singular form of the word that belongs to the language")</f>
+        <f t="shared" si="1"/>
         <v>Choose the singular form of the word that belongs to the language</v>
+      </c>
+      <c r="J99" t="s">
+        <v>271</v>
+      </c>
+      <c r="K99" t="s">
+        <v>139</v>
       </c>
       <c r="L99" t="s">
         <v>293</v>
@@ -5690,8 +5846,14 @@
         <v>177</v>
       </c>
       <c r="I100" t="str">
-        <f>IF(H100="pl","Choose the plural form of the word that belongs to the language","Choose the singular form of the word that belongs to the language")</f>
+        <f t="shared" si="1"/>
         <v>Choose the singular form of the word that belongs to the language</v>
+      </c>
+      <c r="J100" t="s">
+        <v>156</v>
+      </c>
+      <c r="K100" t="s">
+        <v>276</v>
       </c>
       <c r="L100" t="s">
         <v>291</v>
@@ -5729,8 +5891,14 @@
         <v>177</v>
       </c>
       <c r="I101" t="str">
-        <f>IF(H101="pl","Choose the plural form of the word that belongs to the language","Choose the singular form of the word that belongs to the language")</f>
+        <f t="shared" si="1"/>
         <v>Choose the singular form of the word that belongs to the language</v>
+      </c>
+      <c r="J101" t="s">
+        <v>281</v>
+      </c>
+      <c r="K101" t="s">
+        <v>282</v>
       </c>
       <c r="L101" t="s">
         <v>293</v>
@@ -5768,8 +5936,14 @@
         <v>177</v>
       </c>
       <c r="I102" t="str">
-        <f>IF(H102="pl","Choose the plural form of the word that belongs to the language","Choose the singular form of the word that belongs to the language")</f>
+        <f t="shared" si="1"/>
         <v>Choose the singular form of the word that belongs to the language</v>
+      </c>
+      <c r="J102" t="s">
+        <v>168</v>
+      </c>
+      <c r="K102" t="s">
+        <v>284</v>
       </c>
       <c r="L102" t="s">
         <v>291</v>
@@ -5807,8 +5981,14 @@
         <v>181</v>
       </c>
       <c r="I103" t="str">
-        <f>IF(H103="pl","Choose the plural form of the word that belongs to the language","Choose the singular form of the word that belongs to the language")</f>
+        <f t="shared" si="1"/>
         <v>Choose the plural form of the word that belongs to the language</v>
+      </c>
+      <c r="J103" t="s">
+        <v>289</v>
+      </c>
+      <c r="K103" t="s">
+        <v>290</v>
       </c>
       <c r="L103" t="s">
         <v>293</v>

--- a/Lists/devoicing.xlsx
+++ b/Lists/devoicing.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julianrl_adm\Experiment_Orthography\Lists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\ortexp\Lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9210"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="352">
   <si>
     <t>musap</t>
   </si>
@@ -1074,13 +1074,19 @@
   </si>
   <si>
     <t>phase</t>
+  </si>
+  <si>
+    <t>Images/basketball.jpg</t>
+  </si>
+  <si>
+    <t>Images/basketball_pl.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1138,7 +1144,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1402,13 +1408,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43:K73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>339</v>
       </c>
@@ -1452,7 +1461,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1496,7 +1505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1540,7 +1549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1584,7 +1593,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1628,7 +1637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1672,7 +1681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1716,7 +1725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1760,7 +1769,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -1804,7 +1813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1848,7 +1857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -1892,7 +1901,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -1936,7 +1945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -1980,7 +1989,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -2024,7 +2033,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -2068,7 +2077,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -2112,7 +2121,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -2156,7 +2165,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -2200,7 +2209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>74</v>
       </c>
@@ -2244,7 +2253,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>78</v>
       </c>
@@ -2288,7 +2297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>82</v>
       </c>
@@ -2332,7 +2341,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -2376,7 +2385,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>90</v>
       </c>
@@ -2420,7 +2429,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>94</v>
       </c>
@@ -2464,7 +2473,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>99</v>
       </c>
@@ -2508,7 +2517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>103</v>
       </c>
@@ -2552,7 +2561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>107</v>
       </c>
@@ -2596,7 +2605,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>111</v>
       </c>
@@ -2640,7 +2649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>115</v>
       </c>
@@ -2651,10 +2660,10 @@
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>117</v>
+        <v>350</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>118</v>
+        <v>351</v>
       </c>
       <c r="F29" t="s">
         <v>98</v>
@@ -2684,7 +2693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>119</v>
       </c>
@@ -2728,7 +2737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>123</v>
       </c>
@@ -2772,7 +2781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>127</v>
       </c>
@@ -2816,7 +2825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>131</v>
       </c>
@@ -2860,7 +2869,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>135</v>
       </c>
@@ -2904,7 +2913,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>139</v>
       </c>
@@ -2948,7 +2957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>144</v>
       </c>
@@ -2992,7 +3001,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>148</v>
       </c>
@@ -3036,7 +3045,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>152</v>
       </c>
@@ -3080,7 +3089,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>156</v>
       </c>
@@ -3124,7 +3133,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>160</v>
       </c>
@@ -3168,7 +3177,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>164</v>
       </c>
@@ -3212,7 +3221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>168</v>
       </c>
@@ -3256,7 +3265,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>172</v>
       </c>
@@ -3300,7 +3309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>1</v>
       </c>
@@ -3345,7 +3354,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -3390,7 +3399,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -3435,7 +3444,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>18</v>
       </c>
@@ -3480,7 +3489,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>184</v>
       </c>
@@ -3525,7 +3534,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>191</v>
       </c>
@@ -3570,7 +3579,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>197</v>
       </c>
@@ -3615,7 +3624,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>203</v>
       </c>
@@ -3660,7 +3669,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -3705,7 +3714,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -3750,7 +3759,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -3795,7 +3804,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>62</v>
       </c>
@@ -3840,7 +3849,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>213</v>
       </c>
@@ -3885,7 +3894,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>219</v>
       </c>
@@ -3930,7 +3939,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>225</v>
       </c>
@@ -3975,7 +3984,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>231</v>
       </c>
@@ -4020,7 +4029,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>95</v>
       </c>
@@ -4065,7 +4074,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>100</v>
       </c>
@@ -4110,7 +4119,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>103</v>
       </c>
@@ -4155,7 +4164,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>108</v>
       </c>
@@ -4200,7 +4209,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>241</v>
       </c>
@@ -4245,7 +4254,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>247</v>
       </c>
@@ -4290,7 +4299,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>253</v>
       </c>
@@ -4335,7 +4344,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>259</v>
       </c>
@@ -4380,7 +4389,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>265</v>
       </c>
@@ -4425,7 +4434,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>267</v>
       </c>
@@ -4470,7 +4479,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>272</v>
       </c>
@@ -4515,7 +4524,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>277</v>
       </c>
@@ -4560,7 +4569,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>283</v>
       </c>
@@ -4605,7 +4614,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>285</v>
       </c>
@@ -4650,7 +4659,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>21</v>
       </c>
@@ -4695,7 +4704,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>26</v>
       </c>
@@ -4740,7 +4749,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>29</v>
       </c>
@@ -4785,7 +4794,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>34</v>
       </c>
@@ -4830,7 +4839,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>294</v>
       </c>
@@ -4875,7 +4884,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>297</v>
       </c>
@@ -4920,7 +4929,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>300</v>
       </c>
@@ -4965,7 +4974,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>303</v>
       </c>
@@ -5010,7 +5019,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>66</v>
       </c>
@@ -5055,7 +5064,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>71</v>
       </c>
@@ -5100,7 +5109,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>74</v>
       </c>
@@ -5145,7 +5154,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>79</v>
       </c>
@@ -5190,7 +5199,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>306</v>
       </c>
@@ -5235,7 +5244,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>309</v>
       </c>
@@ -5280,7 +5289,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>312</v>
       </c>
@@ -5325,7 +5334,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>315</v>
       </c>
@@ -5370,7 +5379,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>111</v>
       </c>
@@ -5415,7 +5424,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>116</v>
       </c>
@@ -5460,7 +5469,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>120</v>
       </c>
@@ -5505,7 +5514,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>124</v>
       </c>
@@ -5550,7 +5559,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>318</v>
       </c>
@@ -5595,7 +5604,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>321</v>
       </c>
@@ -5640,7 +5649,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>324</v>
       </c>
@@ -5685,7 +5694,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>327</v>
       </c>
@@ -5730,7 +5739,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>144</v>
       </c>
@@ -5775,7 +5784,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>330</v>
       </c>
@@ -5820,7 +5829,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>157</v>
       </c>
@@ -5865,7 +5874,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>333</v>
       </c>
@@ -5910,7 +5919,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>169</v>
       </c>
@@ -5955,7 +5964,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>336</v>
       </c>
